--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/25.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/25.xlsx
@@ -479,13 +479,13 @@
         <v>-10.55707908916489</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.4035785978684</v>
+        <v>-10.43029998796837</v>
       </c>
       <c r="F2" t="n">
-        <v>2.697430625247413</v>
+        <v>2.675802140952882</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.50050374027225</v>
+        <v>-15.54522704677959</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.07669754642887</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.90695145752709</v>
+        <v>-10.93077944869903</v>
       </c>
       <c r="F3" t="n">
-        <v>2.580280699419649</v>
+        <v>2.555169662569218</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.09411866006508</v>
+        <v>-15.14033448909637</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.452990930979281</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.22125837184841</v>
+        <v>-11.24570170125391</v>
       </c>
       <c r="F4" t="n">
-        <v>2.722960615788779</v>
+        <v>2.696147579568924</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.58162046532571</v>
+        <v>-14.62922407845823</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.762263297575872</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.77817875012975</v>
+        <v>-11.79049860710381</v>
       </c>
       <c r="F5" t="n">
-        <v>2.77454428898518</v>
+        <v>2.755193865385109</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.97188573738084</v>
+        <v>-14.02532851758077</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.037872911641625</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.49881837544688</v>
+        <v>-12.50760331065367</v>
       </c>
       <c r="F6" t="n">
-        <v>2.804420924069999</v>
+        <v>2.782268747661798</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.48811205507622</v>
+        <v>-13.54531232619172</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.326880495652333</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.8264008848497</v>
+        <v>-12.83817086510442</v>
       </c>
       <c r="F7" t="n">
-        <v>3.012693277676177</v>
+        <v>2.996354083729703</v>
       </c>
       <c r="G7" t="n">
-        <v>-12.81576993494222</v>
+        <v>-12.88199080271567</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.666712004624731</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.6259740039996</v>
+        <v>-13.63579323113089</v>
       </c>
       <c r="F8" t="n">
-        <v>3.139295846155668</v>
+        <v>3.122511513912575</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.5132591854813</v>
+        <v>-12.58064526820766</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.081491341294231</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.25737649314752</v>
+        <v>-14.26002113832155</v>
       </c>
       <c r="F9" t="n">
-        <v>3.310333690479977</v>
+        <v>3.288836129213863</v>
       </c>
       <c r="G9" t="n">
-        <v>-11.89252692314938</v>
+        <v>-11.96094729780024</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.588477344085018</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.22526425763065</v>
+        <v>-15.23829109895816</v>
       </c>
       <c r="F10" t="n">
-        <v>3.49155734641515</v>
+        <v>3.475558552342561</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.54627478989425</v>
+        <v>-11.62472386852188</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.183799634737161</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.10260565566039</v>
+        <v>-16.10519793162306</v>
       </c>
       <c r="F11" t="n">
-        <v>3.679039123108667</v>
+        <v>3.651623840958092</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.09946067851183</v>
+        <v>-11.16980562168042</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.865644136184152</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.91269189399219</v>
+        <v>-16.91733966150101</v>
       </c>
       <c r="F12" t="n">
-        <v>3.72245319933183</v>
+        <v>3.698180069863271</v>
       </c>
       <c r="G12" t="n">
-        <v>-10.85741018357399</v>
+        <v>-10.92635425033852</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.611652775312677</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.54558690566407</v>
+        <v>-17.54307318351846</v>
       </c>
       <c r="F13" t="n">
-        <v>3.579328144666081</v>
+        <v>3.561234582138816</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.2987485290147</v>
+        <v>-10.35899930669233</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.410629500584773</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.52503517355644</v>
+        <v>-18.51704886882299</v>
       </c>
       <c r="F14" t="n">
-        <v>3.835911095758229</v>
+        <v>3.808469629001971</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.717607390476166</v>
+        <v>-9.784456688786019</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.235632869244766</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.36798309202097</v>
+        <v>-19.35665825006288</v>
       </c>
       <c r="F15" t="n">
-        <v>3.873040866617364</v>
+        <v>3.84934379847384</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.248169779783236</v>
+        <v>-9.309834526167766</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.074834930110023</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.34098994691522</v>
+        <v>-20.33767759429626</v>
       </c>
       <c r="F16" t="n">
-        <v>4.087204756502318</v>
+        <v>4.060889227790449</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.727580541887683</v>
+        <v>-8.78521285899696</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.907296569351168</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.29486894735769</v>
+        <v>-21.29287891732575</v>
       </c>
       <c r="F17" t="n">
-        <v>4.290842434902526</v>
+        <v>4.263165306695117</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.363928738155899</v>
+        <v>-8.420880255517407</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.726787557195822</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.05970818706849</v>
+        <v>-22.0582680337559</v>
       </c>
       <c r="F18" t="n">
-        <v>4.52980314636971</v>
+        <v>4.514616075073308</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.878099564305128</v>
+        <v>-7.938638372645269</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.522002259454896</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.80016955888799</v>
+        <v>-22.79220943876022</v>
       </c>
       <c r="F19" t="n">
-        <v>4.730874733412939</v>
+        <v>4.714168954986897</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.319974694162346</v>
+        <v>-7.382804655499789</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.293629802527652</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.50114454533685</v>
+        <v>-23.48421619776249</v>
       </c>
       <c r="F20" t="n">
-        <v>4.8472391210702</v>
+        <v>4.829590696839554</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.60178332947662</v>
+        <v>-6.673633887472013</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.0385543363366</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.18145987790146</v>
+        <v>-24.16381145367081</v>
       </c>
       <c r="F21" t="n">
-        <v>4.902357716033867</v>
+        <v>4.889658182277393</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.475455699356806</v>
+        <v>-6.538743891293709</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.763681715481122</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.91223294561808</v>
+        <v>-24.8932883834061</v>
       </c>
       <c r="F22" t="n">
-        <v>5.228068026130329</v>
+        <v>5.212540554960041</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.329149215100516</v>
+        <v>-6.393524068173284</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.474156210671965</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.42262327959993</v>
+        <v>-25.40761950054331</v>
       </c>
       <c r="F23" t="n">
-        <v>5.222071751428818</v>
+        <v>5.20850812568479</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.033996339836644</v>
+        <v>-6.092466564327792</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.181674239928835</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.86249847047624</v>
+        <v>-25.85163185911761</v>
       </c>
       <c r="F24" t="n">
-        <v>5.16527734170141</v>
+        <v>5.145272302959253</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.743190109116225</v>
+        <v>-5.802746994743236</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.893724012853787</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.18839207281249</v>
+        <v>-26.17353230908713</v>
       </c>
       <c r="F25" t="n">
-        <v>5.278237730619822</v>
+        <v>5.254043154968313</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.511652733360299</v>
+        <v>-5.55497516346357</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.619943149377249</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.49892840391539</v>
+        <v>-26.48045516460571</v>
       </c>
       <c r="F26" t="n">
-        <v>5.295048247468599</v>
+        <v>5.263024474717737</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.290759399814697</v>
+        <v>-5.326291909727142</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.365548462845984</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.2734265797695</v>
+        <v>-26.25618401692694</v>
       </c>
       <c r="F27" t="n">
-        <v>5.404840299099313</v>
+        <v>5.377241724708955</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.882921073992089</v>
+        <v>-4.908935479738598</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.136404675785757</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.41841074143877</v>
+        <v>-26.40450671582086</v>
       </c>
       <c r="F28" t="n">
-        <v>5.192011824104215</v>
+        <v>5.172111523784791</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.713572136734362</v>
+        <v>-4.738067835351231</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.9357066774363653</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.55759501294916</v>
+        <v>-26.54454198701596</v>
       </c>
       <c r="F29" t="n">
-        <v>5.226208919126803</v>
+        <v>5.209084187009825</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.685698623984327</v>
+        <v>-4.707156908341916</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.7669154905433093</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.58092549661312</v>
+        <v>-26.56952210083798</v>
       </c>
       <c r="F30" t="n">
-        <v>5.209529325306444</v>
+        <v>5.192168931738316</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.700479833892635</v>
+        <v>-4.718075888911915</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.6322958378965148</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.22816648884565</v>
+        <v>-26.21235098701285</v>
       </c>
       <c r="F31" t="n">
-        <v>5.073893067866162</v>
+        <v>5.051924183697746</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.901643067055756</v>
+        <v>-4.920456706239317</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.5333872412902567</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.89732399603523</v>
+        <v>-25.8802123562211</v>
       </c>
       <c r="F32" t="n">
-        <v>5.0860165402976</v>
+        <v>5.064230948368968</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.996234955087227</v>
+        <v>-5.010309180642083</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.4717853366086678</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.70471003662776</v>
+        <v>-25.69587273220959</v>
       </c>
       <c r="F33" t="n">
-        <v>4.981435225197893</v>
+        <v>4.961718217118253</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.038444539448952</v>
+        <v>-5.057808055351865</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.4479891882583972</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.21039705053555</v>
+        <v>-25.20289516100724</v>
       </c>
       <c r="F34" t="n">
-        <v>5.033202190634078</v>
+        <v>5.012228321481633</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.256562304792109</v>
+        <v>-5.274708236530741</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.4626681055413286</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.8966138283279</v>
+        <v>-24.88222538750485</v>
       </c>
       <c r="F35" t="n">
-        <v>4.871826465806962</v>
+        <v>4.854361333816099</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.363578788220377</v>
+        <v>-5.377613736866707</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.5136471918871929</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.39685444425353</v>
+        <v>-24.37559254443857</v>
       </c>
       <c r="F36" t="n">
-        <v>5.001833033025302</v>
+        <v>4.984079870371922</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.411548985832462</v>
+        <v>-5.421158736118288</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.5976693391118532</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.81812228943787</v>
+        <v>-23.80332798722672</v>
       </c>
       <c r="F37" t="n">
-        <v>4.972165874785951</v>
+        <v>4.956167080713361</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.513668947997925</v>
+        <v>-5.521393406674544</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.7082115284128672</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.22806529266412</v>
+        <v>-23.21166063720344</v>
       </c>
       <c r="F38" t="n">
-        <v>4.794058186927109</v>
+        <v>4.778871115630707</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.541987599044578</v>
+        <v>-5.544540598098715</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.8391369564811154</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.11712111838333</v>
+        <v>-23.09794089472021</v>
       </c>
       <c r="F39" t="n">
-        <v>4.938832871750916</v>
+        <v>4.925033584555737</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.530204526487025</v>
+        <v>-5.534669001756054</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.9838832240286129</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.41030696486707</v>
+        <v>-22.38400452845804</v>
       </c>
       <c r="F40" t="n">
-        <v>5.106964224844362</v>
+        <v>5.091541492096809</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.589250812303209</v>
+        <v>-5.59046839646749</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.137635660725905</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.91027264243303</v>
+        <v>-21.88290972949382</v>
       </c>
       <c r="F41" t="n">
-        <v>5.081486603514364</v>
+        <v>5.066430455246378</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.646163052756193</v>
+        <v>-5.654450480455005</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.296433211928032</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.07976241166813</v>
+        <v>-21.06170812604939</v>
       </c>
       <c r="F42" t="n">
-        <v>5.197903360382991</v>
+        <v>5.182271150789971</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.858336912609206</v>
+        <v>-5.870826969520212</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.457420567346241</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.58273931888769</v>
+        <v>-20.56620374039859</v>
       </c>
       <c r="F43" t="n">
-        <v>5.207801141331337</v>
+        <v>5.191645239624647</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.987335372508732</v>
+        <v>-5.989652710111718</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.619204315477794</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.95471464387293</v>
+        <v>-19.92282179415048</v>
       </c>
       <c r="F44" t="n">
-        <v>5.060172334488033</v>
+        <v>5.053966582941055</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.98716517257179</v>
+        <v>-5.996696369040566</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.780133935988976</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.41438221329205</v>
+        <v>-19.39022691454907</v>
       </c>
       <c r="F45" t="n">
-        <v>4.998114819018252</v>
+        <v>4.989552452959763</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.941983635464993</v>
+        <v>-5.970708147899741</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.940221480189712</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.75102141290748</v>
+        <v>-18.72992971302946</v>
       </c>
       <c r="F46" t="n">
-        <v>5.203087912308315</v>
+        <v>5.1961489918022</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.12096850761423</v>
+        <v>-6.149339527872251</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.097975756501874</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.39466202185853</v>
+        <v>-18.36640883232609</v>
       </c>
       <c r="F47" t="n">
-        <v>5.213509385370329</v>
+        <v>5.205470711425509</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.3291753997062</v>
+        <v>-6.360911141794544</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.253560995737736</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.77145531428953</v>
+        <v>-17.75244529056335</v>
       </c>
       <c r="F48" t="n">
-        <v>5.107304624718247</v>
+        <v>5.101858226736089</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.465623379922669</v>
+        <v>-6.500998782201013</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.404932596056712</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.24810360049437</v>
+        <v>-17.24532803229193</v>
       </c>
       <c r="F49" t="n">
-        <v>5.130425631536736</v>
+        <v>5.119297174121268</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.755630980169744</v>
+        <v>-6.796086195950677</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.552954515968619</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.6507280064321</v>
+        <v>-16.64774296138418</v>
       </c>
       <c r="F50" t="n">
-        <v>4.998690880343288</v>
+        <v>4.988557437943792</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.931382053517074</v>
+        <v>-6.976380298384086</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.695464928874872</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.89670300886857</v>
+        <v>-15.89035324199033</v>
       </c>
       <c r="F51" t="n">
-        <v>4.934433857996096</v>
+        <v>4.928149552632068</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.975241268036856</v>
+        <v>-7.017699606152574</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.832887828018889</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.42077161596614</v>
+        <v>-15.41209141918208</v>
       </c>
       <c r="F52" t="n">
-        <v>4.83836253974351</v>
+        <v>4.831475988448762</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.219268700703789</v>
+        <v>-7.256961440585118</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.962509849103766</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.83159180348279</v>
+        <v>-14.82752009729901</v>
       </c>
       <c r="F53" t="n">
-        <v>4.790182865285958</v>
+        <v>4.788821265790419</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.466333547630001</v>
+        <v>-7.503646610728921</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.085352696764878</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.15008507135958</v>
+        <v>-14.13639052258713</v>
       </c>
       <c r="F54" t="n">
-        <v>4.627262248723519</v>
+        <v>4.625717356988195</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.706276181810315</v>
+        <v>-7.758069331852183</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.199800577805243</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.5996191983792</v>
+        <v>-13.59279810859866</v>
       </c>
       <c r="F55" t="n">
-        <v>4.699086622113228</v>
+        <v>4.695289854289128</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.017493312660985</v>
+        <v>-8.065672987118537</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.309051524896478</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.3054613381313</v>
+        <v>-13.28527300714936</v>
       </c>
       <c r="F56" t="n">
-        <v>4.610111332000858</v>
+        <v>4.59730705982165</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.047893639859472</v>
+        <v>-8.096583914127852</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.412594303253684</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.98974045510308</v>
+        <v>-12.97494615289193</v>
       </c>
       <c r="F57" t="n">
-        <v>4.507205831664891</v>
+        <v>4.50097389551223</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.37212451973482</v>
+        <v>-8.420173271163954</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.515029822146288</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.5445105123645</v>
+        <v>-12.52894376428569</v>
       </c>
       <c r="F58" t="n">
-        <v>4.426531061554175</v>
+        <v>4.414983650447772</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.793487194392931</v>
+        <v>-8.845450544371742</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.61532764578648</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.22302901608592</v>
+        <v>-12.20756700642984</v>
       </c>
       <c r="F59" t="n">
-        <v>4.402964916439069</v>
+        <v>4.392726735616838</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.129527331431515</v>
+        <v>-9.182590434849029</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.717493375702119</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.89168901576751</v>
+        <v>-11.87064968510086</v>
       </c>
       <c r="F60" t="n">
-        <v>4.301473384810008</v>
+        <v>4.292256403609432</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.232236447224855</v>
+        <v>-9.286242196446976</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.819147090191623</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.72190803251601</v>
+        <v>-11.70999403693004</v>
       </c>
       <c r="F61" t="n">
-        <v>4.179505491536488</v>
+        <v>4.170890756266632</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.618459381055773</v>
+        <v>-9.670566746365843</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.923250384465478</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.62998697426425</v>
+        <v>-11.61947385508234</v>
       </c>
       <c r="F62" t="n">
-        <v>4.077385529371024</v>
+        <v>4.067383009999945</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.81852286078019</v>
+        <v>-9.869674487982813</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.026797166706245</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.38119394336293</v>
+        <v>-11.37559043774667</v>
       </c>
       <c r="F63" t="n">
-        <v>4.157012915254402</v>
+        <v>4.14402535083541</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.0543545118682</v>
+        <v>-10.09909091067838</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.131964751959756</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.31687145950153</v>
+        <v>-11.31626921357081</v>
       </c>
       <c r="F64" t="n">
-        <v>4.055783229682176</v>
+        <v>4.041119850499443</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.22861306269158</v>
+        <v>-10.28682144112589</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.235768387519234</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.38681054128203</v>
+        <v>-11.37891588266847</v>
       </c>
       <c r="F65" t="n">
-        <v>4.064974026277068</v>
+        <v>4.051986461858076</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.11522062777939</v>
+        <v>-10.17075817643399</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.340242456875083</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.23013495317509</v>
+        <v>-11.23090739904276</v>
       </c>
       <c r="F66" t="n">
-        <v>4.077464083188074</v>
+        <v>4.067304456182895</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.31087200144614</v>
+        <v>-10.35639393842682</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.443378152866451</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.4938270247103</v>
+        <v>-11.49497914736037</v>
       </c>
       <c r="F67" t="n">
-        <v>3.779928408807008</v>
+        <v>3.771889734862188</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.39959853780452</v>
+        <v>-10.45529319409322</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.547555140305755</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.49466493209217</v>
+        <v>-11.49800346931681</v>
       </c>
       <c r="F68" t="n">
-        <v>3.899068364666715</v>
+        <v>3.890008491100241</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.19118216886708</v>
+        <v>-10.24131259644805</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.65143378969012</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.42281437409678</v>
+        <v>-11.43903573731768</v>
       </c>
       <c r="F69" t="n">
-        <v>3.861702932356429</v>
+        <v>3.851255274688731</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.23860248975981</v>
+        <v>-10.2852241801792</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.75733350335734</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.6267400831595</v>
+        <v>-11.64073575489731</v>
       </c>
       <c r="F70" t="n">
-        <v>3.650419349096654</v>
+        <v>3.631173663919316</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.30600166478902</v>
+        <v>-10.3500179869429</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.864218076295575</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.58619322125868</v>
+        <v>-11.60335723028418</v>
       </c>
       <c r="F71" t="n">
-        <v>3.558747044598888</v>
+        <v>3.537092375698673</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.3055565264924</v>
+        <v>-10.35251861678567</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.974108807720582</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.74203090198374</v>
+        <v>-11.75755837315403</v>
       </c>
       <c r="F72" t="n">
-        <v>3.581789497600326</v>
+        <v>3.569823132802988</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.45402324071757</v>
+        <v>-10.50448097586959</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.086140745358015</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.1226503301984</v>
+        <v>-12.13339911083146</v>
       </c>
       <c r="F73" t="n">
-        <v>3.677206200710825</v>
+        <v>3.665527866576006</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.25440489928978</v>
+        <v>-10.3032653734951</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.201838410972173</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.41845782060436</v>
+        <v>-12.434535168494</v>
       </c>
       <c r="F74" t="n">
-        <v>3.674771032382264</v>
+        <v>3.661652544934855</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.17297077561424</v>
+        <v>-10.21973648136488</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.319916532521781</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.73624728748158</v>
+        <v>-12.75418374237474</v>
       </c>
       <c r="F75" t="n">
-        <v>3.621197329153921</v>
+        <v>3.607110011296224</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.09270186689162</v>
+        <v>-10.13954612645931</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.441640547831544</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.96296669579175</v>
+        <v>-12.98536762595394</v>
       </c>
       <c r="F76" t="n">
-        <v>3.623449205242698</v>
+        <v>3.60852398000313</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.04109200908953</v>
+        <v>-10.08183525553298</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.565653343903764</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.41233380622831</v>
+        <v>-13.4330065524154</v>
       </c>
       <c r="F77" t="n">
-        <v>3.643977936098524</v>
+        <v>3.62619858883946</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.821547182736628</v>
+        <v>-9.861779829369253</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.693145906528494</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.16447351218263</v>
+        <v>-14.18716247300734</v>
       </c>
       <c r="F78" t="n">
-        <v>3.618159914894641</v>
+        <v>3.599725952493491</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.526080092204555</v>
+        <v>-9.563720462874517</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.822750997637429</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.76382604397401</v>
+        <v>-14.78516649760602</v>
       </c>
       <c r="F79" t="n">
-        <v>3.743453253089959</v>
+        <v>3.723500583559169</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.528030845327972</v>
+        <v>-9.570541552655056</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.955291699346306</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.13123533862137</v>
+        <v>-15.16032643553569</v>
       </c>
       <c r="F80" t="n">
-        <v>3.780216439469526</v>
+        <v>3.763589214860534</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.143431357049428</v>
+        <v>-9.19024943201144</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.089025986819139</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.69471496062642</v>
+        <v>-15.72717077937106</v>
       </c>
       <c r="F81" t="n">
-        <v>3.759399677951182</v>
+        <v>3.748454512775499</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.948578613856018</v>
+        <v>-8.993904166294074</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.22407011830759</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.54813672136433</v>
+        <v>-16.57434751165347</v>
       </c>
       <c r="F82" t="n">
-        <v>3.648010365373776</v>
+        <v>3.634577662658165</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.718324283778582</v>
+        <v>-8.756579992682106</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.358764461007198</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.49880810761059</v>
+        <v>-17.52787301991922</v>
       </c>
       <c r="F83" t="n">
-        <v>3.755524356310031</v>
+        <v>3.736880917063413</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.527595615980315</v>
+        <v>-8.570957322992113</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.491431682331799</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.42284974987677</v>
+        <v>-18.45501753795889</v>
       </c>
       <c r="F84" t="n">
-        <v>3.663878236417948</v>
+        <v>3.660762268341617</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.233359201915365</v>
+        <v>-8.271051941796694</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.619309787212773</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.44234737216198</v>
+        <v>-19.46963173128414</v>
       </c>
       <c r="F85" t="n">
-        <v>3.827689129573625</v>
+        <v>3.818786363641251</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.057791420807819</v>
+        <v>-8.086044610340263</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.738562860760521</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.62667708722452</v>
+        <v>-20.65017777082542</v>
       </c>
       <c r="F86" t="n">
-        <v>3.812894827362474</v>
+        <v>3.804699045783554</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.910463736929874</v>
+        <v>-7.93697565018437</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.845389257172794</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.82111406008087</v>
+        <v>-21.84724629655296</v>
       </c>
       <c r="F87" t="n">
-        <v>3.775974533348807</v>
+        <v>3.771313673537152</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.753932164154198</v>
+        <v>-7.781687846178657</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.933818728122016</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.2369680585965</v>
+        <v>-23.25702546655002</v>
       </c>
       <c r="F88" t="n">
-        <v>4.009515031439516</v>
+        <v>3.998177097178582</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.678625238208589</v>
+        <v>-7.706302366415998</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.997846288251867</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.73001427466694</v>
+        <v>-24.74818639101125</v>
       </c>
       <c r="F89" t="n">
-        <v>3.855654288443552</v>
+        <v>3.849474721502257</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.472120345486045</v>
+        <v>-7.492596707130503</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.029733912009551</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.35436319593705</v>
+        <v>-26.37140937423698</v>
       </c>
       <c r="F90" t="n">
-        <v>4.005456417558581</v>
+        <v>3.992468853139589</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.629790948608951</v>
+        <v>-7.648931895363555</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.02282102099409</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.06808017640478</v>
+        <v>-28.08180090978291</v>
       </c>
       <c r="F91" t="n">
-        <v>4.141773474746633</v>
+        <v>4.129100125595842</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.364292139281588</v>
+        <v>-7.38273919398558</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.969356583540496</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.02019489931751</v>
+        <v>-30.03128407982445</v>
       </c>
       <c r="F92" t="n">
-        <v>4.039836804820954</v>
+        <v>4.024702102735919</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.544324395658164</v>
+        <v>-7.555465945376472</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.864032631719472</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.84543211539106</v>
+        <v>-31.8622950014512</v>
       </c>
       <c r="F93" t="n">
-        <v>3.965551078497</v>
+        <v>3.956072251239591</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.405205585661983</v>
+        <v>-7.415378304970003</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.701946481705712</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.82659865830958</v>
+        <v>-33.84402451339191</v>
       </c>
       <c r="F94" t="n">
-        <v>4.2190442461185</v>
+        <v>4.213336002079508</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.303007069679468</v>
+        <v>-7.30756319106839</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.483781213507969</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.92575303443773</v>
+        <v>-35.94901805658747</v>
       </c>
       <c r="F95" t="n">
-        <v>3.963561048465058</v>
+        <v>3.945493670543476</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.115538385288793</v>
+        <v>-7.109293356833289</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.210522959013217</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.17947513791529</v>
+        <v>-38.20174514504907</v>
       </c>
       <c r="F96" t="n">
-        <v>3.823997100172258</v>
+        <v>3.812816273545424</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.18051548429228</v>
+        <v>-7.180646407320697</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.892667115565924</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.14912045433309</v>
+        <v>-40.17522650619949</v>
       </c>
       <c r="F97" t="n">
-        <v>3.628555203350971</v>
+        <v>3.617452930541187</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.833346889838229</v>
+        <v>-6.828777676146466</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.537004560159445</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.70111140115086</v>
+        <v>-42.72846122178722</v>
       </c>
       <c r="F98" t="n">
-        <v>3.596583799811476</v>
+        <v>3.593834416214714</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.872610706060565</v>
+        <v>-6.871864444798588</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.166420411343958</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.83708133286994</v>
+        <v>-44.86266369262268</v>
       </c>
       <c r="F99" t="n">
-        <v>3.54298391197745</v>
+        <v>3.528530009640184</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.636687408852662</v>
+        <v>-6.638454869736295</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.788634911156878</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.12160962493409</v>
+        <v>-47.14597440052254</v>
       </c>
       <c r="F100" t="n">
-        <v>3.450840284577382</v>
+        <v>3.440497365332418</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.509534963653818</v>
+        <v>-6.497961367941732</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.441767970721688</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.45704079044687</v>
+        <v>-49.48487502628838</v>
       </c>
       <c r="F101" t="n">
-        <v>3.137279631518042</v>
+        <v>3.136389354924805</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.574590616474355</v>
+        <v>-6.551600532684284</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.120441130294619</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.86408685250389</v>
+        <v>-51.88568915219274</v>
       </c>
       <c r="F102" t="n">
-        <v>2.7533085737759</v>
+        <v>2.747835991188059</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.551351778930291</v>
+        <v>-6.545853011736766</v>
       </c>
     </row>
   </sheetData>
